--- a/3.results/model_selection/petit_puffin_R_2_covariates_blocks.xlsx
+++ b/3.results/model_selection/petit_puffin_R_2_covariates_blocks.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\schroll\Documents\stage_M2\3.results\model_selection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAD3108-7CBF-4620-90A3-F2E0DB69BDAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0842AB41-4C16-4C4A-AADE-2B1D9E031365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="static_covs" sheetId="1" r:id="rId1"/>
@@ -346,7 +346,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1090,8 +1089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,10 +1171,10 @@
         <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>1.006</v>
+        <v>1.06</v>
       </c>
       <c r="C2" s="1">
-        <v>454.7</v>
+        <v>481.2</v>
       </c>
       <c r="D2" s="1">
         <v>0.52</v>
@@ -1184,7 +1183,7 @@
         <v>0.5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G2" s="1">
         <v>0.51</v>
@@ -1193,10 +1192,10 @@
         <v>0.02</v>
       </c>
       <c r="I2" s="1">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="J2" s="1">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="K2" s="1">
         <v>321</v>
@@ -1205,16 +1204,16 @@
         <v>729</v>
       </c>
       <c r="M2" s="1">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="N2" s="1">
         <v>1269</v>
       </c>
       <c r="O2" s="1">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P2" s="1">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="Q2" s="1">
         <v>2331</v>
@@ -1231,28 +1230,28 @@
         <v>24</v>
       </c>
       <c r="B3" s="1">
-        <v>1.01</v>
+        <v>1.006</v>
       </c>
       <c r="C3" s="1">
-        <v>446.4</v>
+        <v>413</v>
       </c>
       <c r="D3" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G3" s="1">
         <v>0.52</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.51</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.21</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.5</v>
       </c>
       <c r="H3" s="1">
         <v>0.03</v>
       </c>
       <c r="I3" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="J3" s="1">
         <v>1245</v>
@@ -1270,13 +1269,13 @@
         <v>1251</v>
       </c>
       <c r="O3" s="1">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P3" s="1">
         <v>733</v>
       </c>
       <c r="Q3" s="1">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1">
@@ -1294,10 +1293,10 @@
         <v>25</v>
       </c>
       <c r="B4" s="1">
-        <v>1.008</v>
+        <v>1.0309999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>472.8</v>
+        <v>342.2</v>
       </c>
       <c r="D4" s="1">
         <v>0.53</v>
@@ -1309,13 +1308,13 @@
         <v>0.2</v>
       </c>
       <c r="G4" s="1">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="H4" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I4" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="J4" s="1">
         <v>1251</v>
@@ -1336,18 +1335,18 @@
         <v>323</v>
       </c>
       <c r="P4" s="1">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="Q4" s="1">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="R4" s="1">
-        <v>-1.83</v>
+        <v>-1.85</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
@@ -1357,46 +1356,46 @@
         <v>26</v>
       </c>
       <c r="B5" s="1">
-        <v>1.02</v>
+        <v>1.0269999999999999</v>
       </c>
       <c r="C5" s="1">
-        <v>425.1</v>
+        <v>541.9</v>
       </c>
       <c r="D5" s="1">
         <v>0.48</v>
       </c>
       <c r="E5" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F5" s="1">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="G5" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H5" s="1">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I5" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="J5" s="1">
         <v>1252</v>
       </c>
       <c r="K5" s="1">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L5" s="1">
         <v>729</v>
       </c>
       <c r="M5" s="1">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="N5" s="1">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="O5" s="1">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P5" s="1">
         <v>729</v>
@@ -1407,12 +1406,12 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1">
-        <v>-1.25</v>
+        <v>-1.23</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -1420,28 +1419,28 @@
         <v>27</v>
       </c>
       <c r="B6" s="1">
-        <v>1.018</v>
+        <v>1.014</v>
       </c>
       <c r="C6" s="1">
-        <v>452.7</v>
+        <v>381.5</v>
       </c>
       <c r="D6" s="1">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="E6" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F6" s="1">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G6" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H6" s="1">
         <v>0.03</v>
       </c>
       <c r="I6" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="J6" s="1">
         <v>1238</v>
@@ -1450,13 +1449,13 @@
         <v>312</v>
       </c>
       <c r="L6" s="1">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="M6" s="1">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="N6" s="1">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="O6" s="1">
         <v>320</v>
@@ -1465,17 +1464,17 @@
         <v>732</v>
       </c>
       <c r="Q6" s="1">
-        <v>2296</v>
+        <v>2295</v>
       </c>
       <c r="R6" s="1">
-        <v>-1.4</v>
+        <v>-1.43</v>
       </c>
       <c r="S6" s="1">
-        <v>-0.96</v>
+        <v>-0.97</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="V6" s="1">
         <v>0.28000000000000003</v>
@@ -1483,26 +1482,26 @@
       <c r="W6" s="1"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="1">
-        <v>1.0089999999999999</v>
+        <v>1.0189999999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>440.1</v>
+        <v>515.79999999999995</v>
       </c>
       <c r="D7" s="1">
         <v>0.49</v>
       </c>
       <c r="E7" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F7" s="1">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="G7" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="H7" s="1">
         <v>0.03</v>
@@ -1523,7 +1522,7 @@
         <v>2294</v>
       </c>
       <c r="N7" s="1">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="O7" s="1">
         <v>322</v>
@@ -1532,11 +1531,11 @@
         <v>731</v>
       </c>
       <c r="Q7" s="1">
-        <v>2306</v>
+        <v>2305</v>
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1">
-        <v>-0.69</v>
+        <v>-0.68</v>
       </c>
       <c r="T7" s="1">
         <v>-0.59</v>
@@ -1554,22 +1553,22 @@
         <v>29</v>
       </c>
       <c r="B8" s="1">
-        <v>1.006</v>
+        <v>1.01</v>
       </c>
       <c r="C8" s="1">
-        <v>515.20000000000005</v>
+        <v>518.1</v>
       </c>
       <c r="D8" s="1">
         <v>0.49</v>
       </c>
       <c r="E8" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F8" s="1">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="G8" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H8" s="1">
         <v>0.03</v>
@@ -1578,7 +1577,7 @@
         <v>0.5</v>
       </c>
       <c r="J8" s="1">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="K8" s="1">
         <v>309</v>
@@ -1587,7 +1586,7 @@
         <v>728</v>
       </c>
       <c r="M8" s="1">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="N8" s="1">
         <v>1251</v>
@@ -1602,18 +1601,18 @@
         <v>2299</v>
       </c>
       <c r="R8" s="1">
-        <v>-1.04</v>
+        <v>-1.03</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1">
-        <v>-1.48</v>
+        <v>-1.52</v>
       </c>
       <c r="U8" s="1">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -1621,16 +1620,16 @@
         <v>30</v>
       </c>
       <c r="B9" s="1">
-        <v>1.03</v>
+        <v>1.0089999999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>321.7</v>
+        <v>341.2</v>
       </c>
       <c r="D9" s="1">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="E9" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="F9" s="1">
         <v>0.2</v>
@@ -1642,19 +1641,19 @@
         <v>0.03</v>
       </c>
       <c r="I9" s="1">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="J9" s="1">
         <v>1240</v>
       </c>
       <c r="K9" s="1">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="L9" s="1">
         <v>729</v>
       </c>
       <c r="M9" s="1">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="N9" s="1">
         <v>1245</v>
@@ -1669,22 +1668,22 @@
         <v>2296</v>
       </c>
       <c r="R9" s="1">
-        <v>-1.26</v>
+        <v>-1.23</v>
       </c>
       <c r="S9" s="1">
-        <v>-0.71</v>
+        <v>-0.72</v>
       </c>
       <c r="T9" s="1">
-        <v>-0.66</v>
+        <v>-0.67</v>
       </c>
       <c r="U9" s="1">
-        <v>0.44</v>
+        <v>0.42</v>
       </c>
       <c r="V9" s="1">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
       <c r="W9" s="1">
-        <v>0.7</v>
+        <v>0.69</v>
       </c>
     </row>
   </sheetData>
@@ -1734,7 +1733,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="35" priority="15">
-      <formula>J2&lt;1243</formula>
+      <formula>J2&lt;1240</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K9">
@@ -1747,7 +1746,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="34" priority="13">
-      <formula>K2&lt;314</formula>
+      <formula>K2&lt;311</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L9">
@@ -1760,7 +1759,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="33" priority="11">
-      <formula>L2&lt;729</formula>
+      <formula>L2&lt;726</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M9">
@@ -1773,7 +1772,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="32" priority="9">
-      <formula>M2&lt;2282</formula>
+      <formula>M2&lt;2280</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N9">
@@ -1786,7 +1785,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="31" priority="7">
-      <formula>N2&lt;1249</formula>
+      <formula>N2&lt;1245</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O9">
@@ -1799,7 +1798,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="30" priority="5">
-      <formula>O2&lt;323</formula>
+      <formula>O2&lt;320</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P9">
@@ -1812,7 +1811,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="29" priority="3">
-      <formula>P2&lt;734</formula>
+      <formula>P2&lt;731</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q9">
@@ -1825,7 +1824,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="28" priority="1">
-      <formula>Q2&lt;2301</formula>
+      <formula>Q2&lt;2297</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1838,7 +1837,7 @@
   <dimension ref="A1:AC20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1937,10 +1936,10 @@
         <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>1.006</v>
+        <v>1.06</v>
       </c>
       <c r="C2" s="1">
-        <v>454.7</v>
+        <v>481.2</v>
       </c>
       <c r="D2" s="1">
         <v>0.52</v>
@@ -1949,7 +1948,7 @@
         <v>0.5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G2" s="1">
         <v>0.51</v>
@@ -1958,10 +1957,10 @@
         <v>0.02</v>
       </c>
       <c r="I2" s="1">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="J2" s="1">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="K2" s="1">
         <v>321</v>
@@ -1970,16 +1969,16 @@
         <v>729</v>
       </c>
       <c r="M2" s="1">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="N2" s="1">
         <v>1269</v>
       </c>
       <c r="O2" s="1">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P2" s="1">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="Q2" s="1">
         <v>2331</v>
@@ -2002,16 +2001,16 @@
         <v>43</v>
       </c>
       <c r="B3" s="1">
-        <v>1.075</v>
+        <v>1.0069999999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>304.7</v>
+        <v>295.7</v>
       </c>
       <c r="D3" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="E3" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F3" s="1">
         <v>0.2</v>
@@ -2026,7 +2025,7 @@
         <v>0.5</v>
       </c>
       <c r="J3" s="1">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="K3" s="1">
         <v>314</v>
@@ -2035,7 +2034,7 @@
         <v>743</v>
       </c>
       <c r="M3" s="1">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="N3" s="1">
         <v>1253</v>
@@ -2054,7 +2053,7 @@
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
       <c r="V3" s="1">
-        <v>-1.19</v>
+        <v>-1.1599999999999999</v>
       </c>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
@@ -2062,7 +2061,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="AC3" s="1"/>
     </row>
@@ -2071,19 +2070,19 @@
         <v>44</v>
       </c>
       <c r="B4" s="1">
-        <v>1.016</v>
+        <v>1.04</v>
       </c>
       <c r="C4" s="1">
-        <v>414.2</v>
+        <v>372.3</v>
       </c>
       <c r="D4" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="E4" s="1">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="F4" s="1">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="G4" s="1">
         <v>0.5</v>
@@ -2092,7 +2091,7 @@
         <v>0.02</v>
       </c>
       <c r="I4" s="1">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
       <c r="J4" s="1">
         <v>1261</v>
@@ -2110,13 +2109,13 @@
         <v>1269</v>
       </c>
       <c r="O4" s="1">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="P4" s="1">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Q4" s="1">
-        <v>2331</v>
+        <v>2329</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1">
@@ -2128,7 +2127,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1">
-        <v>0.27</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
@@ -2140,10 +2139,10 @@
         <v>45</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0569999999999999</v>
+        <v>1.018</v>
       </c>
       <c r="C5" s="1">
-        <v>305.39999999999998</v>
+        <v>370.6</v>
       </c>
       <c r="D5" s="1">
         <v>0.5</v>
@@ -2161,7 +2160,7 @@
         <v>0.02</v>
       </c>
       <c r="I5" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="J5" s="1">
         <v>1256</v>
@@ -2179,19 +2178,19 @@
         <v>1263</v>
       </c>
       <c r="O5" s="1">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="P5" s="1">
         <v>736</v>
       </c>
       <c r="Q5" s="1">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
       <c r="U5" s="1">
-        <v>-0.41</v>
+        <v>-0.38</v>
       </c>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
@@ -2209,22 +2208,22 @@
         <v>46</v>
       </c>
       <c r="B6" s="1">
-        <v>1.0329999999999999</v>
+        <v>1.032</v>
       </c>
       <c r="C6" s="1">
-        <v>293.10000000000002</v>
+        <v>388.6</v>
       </c>
       <c r="D6" s="1">
         <v>0.51</v>
       </c>
       <c r="E6" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="F6" s="1">
         <v>0.2</v>
       </c>
       <c r="G6" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H6" s="1">
         <v>0.02</v>
@@ -2245,7 +2244,7 @@
         <v>2310</v>
       </c>
       <c r="N6" s="1">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="O6" s="1">
         <v>325</v>
@@ -2254,10 +2253,10 @@
         <v>742</v>
       </c>
       <c r="Q6" s="1">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="R6" s="1">
-        <v>-0.62</v>
+        <v>-0.6</v>
       </c>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
@@ -2265,7 +2264,7 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
@@ -2278,16 +2277,16 @@
         <v>47</v>
       </c>
       <c r="B7" s="1">
-        <v>1.0089999999999999</v>
+        <v>1.0309999999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>209.1</v>
+        <v>248.3</v>
       </c>
       <c r="D7" s="1">
         <v>0.49</v>
       </c>
       <c r="E7" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="F7" s="1">
         <v>0.21</v>
@@ -2299,7 +2298,7 @@
         <v>0.02</v>
       </c>
       <c r="I7" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J7" s="1">
         <v>1243</v>
@@ -2327,22 +2326,22 @@
       </c>
       <c r="R7" s="1"/>
       <c r="S7" s="1">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1">
-        <v>-1.56</v>
+        <v>-1.52</v>
       </c>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.51</v>
       </c>
       <c r="AC7" s="1"/>
     </row>
@@ -2351,28 +2350,28 @@
         <v>48</v>
       </c>
       <c r="B8" s="1">
-        <v>1.0760000000000001</v>
+        <v>1.173</v>
       </c>
       <c r="C8" s="1">
-        <v>324.89999999999998</v>
+        <v>320.8</v>
       </c>
       <c r="D8" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="E8" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="F8" s="1">
         <v>0.2</v>
       </c>
       <c r="G8" s="1">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="H8" s="1">
         <v>0.02</v>
       </c>
       <c r="I8" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="J8" s="1">
         <v>1243</v>
@@ -2390,13 +2389,13 @@
         <v>1253</v>
       </c>
       <c r="O8" s="1">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="P8" s="1">
         <v>744</v>
       </c>
       <c r="Q8" s="1">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1"/>
@@ -2405,17 +2404,17 @@
         <v>-0.13</v>
       </c>
       <c r="V8" s="1">
-        <v>-1.1200000000000001</v>
+        <v>-1.1499999999999999</v>
       </c>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AB8" s="1">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="AC8" s="1"/>
     </row>
@@ -2424,13 +2423,13 @@
         <v>49</v>
       </c>
       <c r="B9" s="1">
-        <v>1.026</v>
+        <v>1.0640000000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>322</v>
+        <v>374.9</v>
       </c>
       <c r="D9" s="1">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
       <c r="E9" s="1">
         <v>0.5</v>
@@ -2439,22 +2438,22 @@
         <v>0.22</v>
       </c>
       <c r="G9" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="H9" s="1">
         <v>0.02</v>
       </c>
       <c r="I9" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="J9" s="1">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="K9" s="1">
         <v>324</v>
       </c>
       <c r="L9" s="1">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="M9" s="1">
         <v>2310</v>
@@ -2473,21 +2472,21 @@
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1">
-        <v>0.36</v>
+        <v>0.38</v>
       </c>
       <c r="T9" s="1"/>
       <c r="U9" s="1">
-        <v>-0.55000000000000004</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
@@ -2497,22 +2496,22 @@
         <v>50</v>
       </c>
       <c r="B10" s="1">
-        <v>1.0169999999999999</v>
+        <v>1.006</v>
       </c>
       <c r="C10" s="1">
-        <v>378.5</v>
+        <v>328.9</v>
       </c>
       <c r="D10" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="E10" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F10" s="1">
         <v>0.22</v>
       </c>
       <c r="G10" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H10" s="1">
         <v>0.03</v>
@@ -2536,26 +2535,26 @@
         <v>1256</v>
       </c>
       <c r="O10" s="1">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P10" s="1">
         <v>736</v>
       </c>
       <c r="Q10" s="1">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="R10" s="1">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
       <c r="V10" s="1">
-        <v>-2.31</v>
+        <v>-2.36</v>
       </c>
       <c r="W10" s="1"/>
       <c r="X10" s="1">
-        <v>0.62</v>
+        <v>0.61</v>
       </c>
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
@@ -2570,19 +2569,19 @@
         <v>51</v>
       </c>
       <c r="B11" s="1">
-        <v>1.008</v>
+        <v>1.0409999999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>304.60000000000002</v>
+        <v>328.1</v>
       </c>
       <c r="D11" s="1">
         <v>0.52</v>
       </c>
       <c r="E11" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F11" s="1">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="G11" s="1">
         <v>0.5</v>
@@ -2609,26 +2608,26 @@
         <v>1256</v>
       </c>
       <c r="O11" s="1">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="P11" s="1">
         <v>744</v>
       </c>
       <c r="Q11" s="1">
-        <v>2323</v>
+        <v>2322</v>
       </c>
       <c r="R11" s="1">
-        <v>-1.19</v>
+        <v>-1.1299999999999999</v>
       </c>
       <c r="S11" s="1">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1"/>
       <c r="W11" s="1"/>
       <c r="X11" s="1">
-        <v>0.54</v>
+        <v>0.53</v>
       </c>
       <c r="Y11" s="1">
         <v>0.27</v>
@@ -2643,28 +2642,28 @@
         <v>52</v>
       </c>
       <c r="B12" s="1">
-        <v>1.018</v>
+        <v>1.0189999999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>254.9</v>
+        <v>427.8</v>
       </c>
       <c r="D12" s="1">
-        <v>0.49</v>
+        <v>0.52</v>
       </c>
       <c r="E12" s="1">
         <v>0.5</v>
       </c>
       <c r="F12" s="1">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="G12" s="1">
-        <v>0.53</v>
+        <v>0.51</v>
       </c>
       <c r="H12" s="1">
         <v>0.02</v>
       </c>
       <c r="I12" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="J12" s="1">
         <v>1251</v>
@@ -2691,7 +2690,7 @@
         <v>2326</v>
       </c>
       <c r="R12" s="1">
-        <v>-0.53</v>
+        <v>-0.52</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
@@ -2701,37 +2700,37 @@
       <c r="V12" s="1"/>
       <c r="W12" s="1"/>
       <c r="X12" s="1">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
       <c r="AA12" s="1">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B13" s="1">
-        <v>1.044</v>
+        <v>1.056</v>
       </c>
       <c r="C13" s="1">
-        <v>191.4</v>
+        <v>162</v>
       </c>
       <c r="D13" s="1">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="E13" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="F13" s="1">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="G13" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H13" s="1">
         <v>0.02</v>
@@ -2740,13 +2739,13 @@
         <v>0.5</v>
       </c>
       <c r="J13" s="1">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="K13" s="1">
         <v>312</v>
       </c>
       <c r="L13" s="1">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="M13" s="1">
         <v>2291</v>
@@ -2758,21 +2757,21 @@
         <v>319</v>
       </c>
       <c r="P13" s="1">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="Q13" s="1">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="T13" s="1"/>
       <c r="U13" s="1">
         <v>-0.93</v>
       </c>
       <c r="V13" s="1">
-        <v>-1.73</v>
+        <v>-1.81</v>
       </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
@@ -2781,10 +2780,10 @@
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="AB13" s="1">
-        <v>0.56000000000000005</v>
+        <v>0.6</v>
       </c>
       <c r="AC13" s="1"/>
     </row>
@@ -2793,28 +2792,28 @@
         <v>54</v>
       </c>
       <c r="B14" s="1">
-        <v>1.0489999999999999</v>
+        <v>1.0409999999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>230.5</v>
+        <v>263.60000000000002</v>
       </c>
       <c r="D14" s="1">
-        <v>0.47</v>
+        <v>0.49</v>
       </c>
       <c r="E14" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F14" s="1">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="G14" s="1">
+        <v>0.51</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="I14" s="1">
         <v>0.49</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0.02</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.5</v>
       </c>
       <c r="J14" s="1">
         <v>1246</v>
@@ -2823,45 +2822,45 @@
         <v>310</v>
       </c>
       <c r="L14" s="1">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="M14" s="1">
-        <v>2294</v>
+        <v>2293</v>
       </c>
       <c r="N14" s="1">
         <v>1255</v>
       </c>
       <c r="O14" s="1">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="P14" s="1">
         <v>737</v>
       </c>
       <c r="Q14" s="1">
-        <v>2311</v>
+        <v>2310</v>
       </c>
       <c r="R14" s="1">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S14" s="1">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1">
-        <v>-2.33</v>
+        <v>-2.29</v>
       </c>
       <c r="W14" s="1"/>
       <c r="X14" s="1">
-        <v>0.81</v>
+        <v>0.8</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="AC14" s="1"/>
     </row>
@@ -2870,28 +2869,28 @@
         <v>55</v>
       </c>
       <c r="B15" s="1">
-        <v>1.01</v>
+        <v>1.0389999999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>324.5</v>
+        <v>332.9</v>
       </c>
       <c r="D15" s="1">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
       <c r="E15" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F15" s="1">
         <v>0.23</v>
       </c>
       <c r="G15" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H15" s="1">
         <v>0.03</v>
       </c>
       <c r="I15" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="J15" s="1">
         <v>1246</v>
@@ -2900,22 +2899,22 @@
         <v>312</v>
       </c>
       <c r="L15" s="1">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="M15" s="1">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="N15" s="1">
         <v>1256</v>
       </c>
       <c r="O15" s="1">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="P15" s="1">
         <v>732</v>
       </c>
       <c r="Q15" s="1">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="R15" s="1">
         <v>1.75</v>
@@ -2926,19 +2925,19 @@
         <v>-0.43</v>
       </c>
       <c r="V15" s="1">
-        <v>-2.41</v>
+        <v>-2.42</v>
       </c>
       <c r="W15" s="1"/>
       <c r="X15" s="1">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
       <c r="AB15" s="1">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="AC15" s="1"/>
     </row>
@@ -2947,22 +2946,22 @@
         <v>56</v>
       </c>
       <c r="B16" s="1">
-        <v>1.0309999999999999</v>
+        <v>1.014</v>
       </c>
       <c r="C16" s="1">
-        <v>187.6</v>
+        <v>240.2</v>
       </c>
       <c r="D16" s="1">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="E16" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="F16" s="1">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="G16" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H16" s="1">
         <v>0.02</v>
@@ -2986,13 +2985,13 @@
         <v>1252</v>
       </c>
       <c r="O16" s="1">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P16" s="1">
         <v>739</v>
       </c>
       <c r="Q16" s="1">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="R16" s="1">
         <v>-1.47</v>
@@ -3002,32 +3001,32 @@
       </c>
       <c r="T16" s="1"/>
       <c r="U16" s="1">
-        <v>-0.79</v>
+        <v>-0.78</v>
       </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1">
-        <v>0.6</v>
+        <v>0.59</v>
       </c>
       <c r="Y16" s="1">
         <v>0.41</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1">
-        <v>0.39</v>
+        <v>0.38</v>
       </c>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B17" s="1">
-        <v>1.1379999999999999</v>
+        <v>1.294</v>
       </c>
       <c r="C17" s="1">
-        <v>148</v>
+        <v>126.5</v>
       </c>
       <c r="D17" s="1">
         <v>0.45</v>
@@ -3036,7 +3035,7 @@
         <v>0.5</v>
       </c>
       <c r="F17" s="1">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="G17" s="1">
         <v>0.5</v>
@@ -3045,7 +3044,7 @@
         <v>0.02</v>
       </c>
       <c r="I17" s="1">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="J17" s="1">
         <v>1246</v>
@@ -3066,37 +3065,37 @@
         <v>319</v>
       </c>
       <c r="P17" s="1">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="Q17" s="1">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="R17" s="1">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="S17" s="1">
-        <v>0.69</v>
+        <v>0.64</v>
       </c>
       <c r="T17" s="1"/>
       <c r="U17" s="1">
         <v>-0.88</v>
       </c>
       <c r="V17" s="1">
-        <v>-2.3199999999999998</v>
+        <v>-2.31</v>
       </c>
       <c r="W17" s="1"/>
       <c r="X17" s="1">
-        <v>0.94</v>
+        <v>0.9</v>
       </c>
       <c r="Y17" s="1">
         <v>0.4</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="AB17" s="1">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="AC17" s="1"/>
     </row>
@@ -3105,10 +3104,10 @@
         <v>58</v>
       </c>
       <c r="B18" s="1">
-        <v>1.02</v>
+        <v>1.071</v>
       </c>
       <c r="C18" s="1">
-        <v>375.5</v>
+        <v>417.2</v>
       </c>
       <c r="D18" s="1">
         <v>0.51</v>
@@ -3117,7 +3116,7 @@
         <v>0.5</v>
       </c>
       <c r="F18" s="1">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="G18" s="1">
         <v>0.51</v>
@@ -3126,7 +3125,7 @@
         <v>0.02</v>
       </c>
       <c r="I18" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J18" s="1">
         <v>1248</v>
@@ -3141,7 +3140,7 @@
         <v>2306</v>
       </c>
       <c r="N18" s="1">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="O18" s="1">
         <v>324</v>
@@ -3150,7 +3149,7 @@
         <v>742</v>
       </c>
       <c r="Q18" s="1">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1"/>
@@ -3163,7 +3162,7 @@
       <c r="X18" s="1"/>
       <c r="Y18" s="1"/>
       <c r="Z18" s="1">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
@@ -3174,19 +3173,19 @@
         <v>59</v>
       </c>
       <c r="B19" s="1">
-        <v>1.0169999999999999</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>385.3</v>
+        <v>493.4</v>
       </c>
       <c r="D19" s="1">
-        <v>0.53</v>
+        <v>0.52</v>
       </c>
       <c r="E19" s="1">
         <v>0.5</v>
       </c>
       <c r="F19" s="1">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="G19" s="1">
         <v>0.52</v>
@@ -3195,7 +3194,7 @@
         <v>0.02</v>
       </c>
       <c r="I19" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="J19" s="1">
         <v>1250</v>
@@ -3204,10 +3203,10 @@
         <v>314</v>
       </c>
       <c r="L19" s="1">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="M19" s="1">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="N19" s="1">
         <v>1259</v>
@@ -3216,10 +3215,10 @@
         <v>321</v>
       </c>
       <c r="P19" s="1">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="Q19" s="1">
-        <v>2324</v>
+        <v>2323</v>
       </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1"/>
@@ -3227,7 +3226,7 @@
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
       <c r="W19" s="1">
-        <v>0.72</v>
+        <v>0.75</v>
       </c>
       <c r="X19" s="1"/>
       <c r="Y19" s="1"/>
@@ -3235,7 +3234,7 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1">
-        <v>0.3</v>
+        <v>0.28999999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.25">
@@ -3243,22 +3242,22 @@
         <v>60</v>
       </c>
       <c r="B20" s="1">
-        <v>1.014</v>
+        <v>1.012</v>
       </c>
       <c r="C20" s="1">
-        <v>292.8</v>
+        <v>226.6</v>
       </c>
       <c r="D20" s="1">
         <v>0.51</v>
       </c>
       <c r="E20" s="1">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="F20" s="1">
         <v>0.2</v>
       </c>
       <c r="G20" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H20" s="1">
         <v>0.02</v>
@@ -3285,20 +3284,20 @@
         <v>321</v>
       </c>
       <c r="P20" s="1">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="Q20" s="1">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1"/>
       <c r="T20" s="1">
-        <v>-0.59</v>
+        <v>-0.6</v>
       </c>
       <c r="U20" s="1"/>
       <c r="V20" s="1"/>
       <c r="W20" s="1">
-        <v>0.74</v>
+        <v>0.73</v>
       </c>
       <c r="X20" s="1"/>
       <c r="Y20" s="1"/>
@@ -3308,7 +3307,7 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
     </row>
   </sheetData>
@@ -3358,7 +3357,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="21" priority="15">
-      <formula>J2&lt;1247</formula>
+      <formula>J2&lt;1245</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K20">
@@ -3371,7 +3370,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="20" priority="13">
-      <formula>K2&lt;315</formula>
+      <formula>K2&lt;312</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L20">
@@ -3384,7 +3383,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="19" priority="11">
-      <formula>L2&lt;734</formula>
+      <formula>L2&lt;731</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M20">
@@ -3397,7 +3396,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="18" priority="9">
-      <formula>M2&lt;2295</formula>
+      <formula>M2&lt;2292</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N20">
@@ -3410,7 +3409,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="17" priority="7">
-      <formula>N2&lt;1254</formula>
+      <formula>N2&lt;1251</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O20">
@@ -3423,7 +3422,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="5">
-      <formula>O2&lt;324</formula>
+      <formula>O2&lt;320</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P20">
@@ -3436,7 +3435,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="15" priority="3">
-      <formula>P2&lt;735</formula>
+      <formula>P2&lt;733</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q20">
@@ -3449,7 +3448,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="14" priority="1">
-      <formula>Q2&lt;2306</formula>
+      <formula>Q2&lt;2304</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3461,8 +3460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3555,10 +3554,10 @@
         <v>23</v>
       </c>
       <c r="B2" s="1">
-        <v>1.006</v>
+        <v>1.06</v>
       </c>
       <c r="C2" s="1">
-        <v>454.7</v>
+        <v>481.2</v>
       </c>
       <c r="D2" s="1">
         <v>0.52</v>
@@ -3567,7 +3566,7 @@
         <v>0.5</v>
       </c>
       <c r="F2" s="1">
-        <v>0.2</v>
+        <v>0.19</v>
       </c>
       <c r="G2" s="1">
         <v>0.51</v>
@@ -3576,10 +3575,10 @@
         <v>0.02</v>
       </c>
       <c r="I2" s="1">
-        <v>0.51</v>
+        <v>0.48</v>
       </c>
       <c r="J2" s="1">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="K2" s="1">
         <v>321</v>
@@ -3588,16 +3587,16 @@
         <v>729</v>
       </c>
       <c r="M2" s="1">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="N2" s="1">
         <v>1269</v>
       </c>
       <c r="O2" s="1">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P2" s="1">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="Q2" s="1">
         <v>2331</v>
@@ -3618,28 +3617,28 @@
         <v>71</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0620000000000001</v>
+        <v>1.1020000000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>187.8</v>
+        <v>124.6</v>
       </c>
       <c r="D3" s="1">
         <v>0.47</v>
       </c>
       <c r="E3" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F3" s="1">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="G3" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H3" s="1">
         <v>0.02</v>
       </c>
       <c r="I3" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="J3" s="1">
         <v>1242</v>
@@ -3654,16 +3653,16 @@
         <v>2291</v>
       </c>
       <c r="N3" s="1">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="O3" s="1">
         <v>321</v>
       </c>
       <c r="P3" s="1">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="Q3" s="1">
-        <v>2302</v>
+        <v>2300</v>
       </c>
       <c r="R3" s="1"/>
       <c r="S3" s="1">
@@ -3674,7 +3673,7 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1">
-        <v>0.67</v>
+        <v>0.72</v>
       </c>
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
@@ -3685,10 +3684,10 @@
         <v>72</v>
       </c>
       <c r="B4" s="1">
-        <v>1.012</v>
+        <v>1.01</v>
       </c>
       <c r="C4" s="1">
-        <v>393.2</v>
+        <v>436.9</v>
       </c>
       <c r="D4" s="1">
         <v>0.5</v>
@@ -3697,7 +3696,7 @@
         <v>0.51</v>
       </c>
       <c r="F4" s="1">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G4" s="1">
         <v>0.51</v>
@@ -3706,7 +3705,7 @@
         <v>0.02</v>
       </c>
       <c r="I4" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="J4" s="1">
         <v>1258</v>
@@ -3721,29 +3720,29 @@
         <v>2308</v>
       </c>
       <c r="N4" s="1">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="O4" s="1">
         <v>327</v>
       </c>
       <c r="P4" s="1">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="Q4" s="1">
-        <v>2325</v>
+        <v>2327</v>
       </c>
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="V4" s="1"/>
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
       <c r="Z4" s="1">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
       <c r="AA4" s="1"/>
     </row>
@@ -3752,28 +3751,28 @@
         <v>73</v>
       </c>
       <c r="B5" s="1">
-        <v>1.0069999999999999</v>
+        <v>1.056</v>
       </c>
       <c r="C5" s="1">
-        <v>574.5</v>
+        <v>758.9</v>
       </c>
       <c r="D5" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="E5" s="1">
         <v>0.5</v>
       </c>
       <c r="F5" s="1">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="G5" s="1">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="H5" s="1">
         <v>0.03</v>
       </c>
       <c r="I5" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="J5" s="1">
         <v>1259</v>
@@ -3791,25 +3790,25 @@
         <v>1260</v>
       </c>
       <c r="O5" s="1">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P5" s="1">
         <v>723</v>
       </c>
       <c r="Q5" s="1">
-        <v>2307</v>
+        <v>2306</v>
       </c>
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
       <c r="T5" s="1">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
       <c r="Y5" s="1">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
@@ -3819,10 +3818,10 @@
         <v>74</v>
       </c>
       <c r="B6" s="1">
-        <v>1.052</v>
+        <v>1.0820000000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>107.6</v>
+        <v>95.7</v>
       </c>
       <c r="D6" s="1">
         <v>0.5</v>
@@ -3831,16 +3830,16 @@
         <v>0.51</v>
       </c>
       <c r="F6" s="1">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="G6" s="1">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="H6" s="1">
         <v>0.02</v>
       </c>
       <c r="I6" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="J6" s="1">
         <v>1258</v>
@@ -3855,30 +3854,30 @@
         <v>2314</v>
       </c>
       <c r="N6" s="1">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="O6" s="1">
         <v>328</v>
       </c>
       <c r="P6" s="1">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="Q6" s="1">
-        <v>2332</v>
+        <v>2330</v>
       </c>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
       <c r="V6" s="1">
-        <v>0.55000000000000004</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -3886,13 +3885,13 @@
         <v>75</v>
       </c>
       <c r="B7" s="1">
-        <v>1.0149999999999999</v>
+        <v>1.0029999999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>368.9</v>
+        <v>390.7</v>
       </c>
       <c r="D7" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="E7" s="1">
         <v>0.51</v>
@@ -3913,35 +3912,35 @@
         <v>1258</v>
       </c>
       <c r="K7" s="1">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L7" s="1">
         <v>731</v>
       </c>
       <c r="M7" s="1">
-        <v>2310</v>
+        <v>2309</v>
       </c>
       <c r="N7" s="1">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="O7" s="1">
         <v>326</v>
       </c>
       <c r="P7" s="1">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="Q7" s="1">
-        <v>2323</v>
+        <v>2325</v>
       </c>
       <c r="R7" s="1">
-        <v>-0.59</v>
+        <v>-0.61</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
@@ -3953,28 +3952,28 @@
         <v>76</v>
       </c>
       <c r="B8" s="1">
-        <v>1.1659999999999999</v>
+        <v>1.022</v>
       </c>
       <c r="C8" s="1">
-        <v>237.9</v>
+        <v>195.2</v>
       </c>
       <c r="D8" s="1">
         <v>0.48</v>
       </c>
       <c r="E8" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F8" s="1">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="G8" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="H8" s="1">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I8" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J8" s="1">
         <v>1240</v>
@@ -3995,10 +3994,10 @@
         <v>320</v>
       </c>
       <c r="P8" s="1">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="Q8" s="1">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="R8" s="1"/>
       <c r="S8" s="1">
@@ -4006,16 +4005,16 @@
       </c>
       <c r="T8" s="1"/>
       <c r="U8" s="1">
-        <v>-0.74</v>
+        <v>-0.72</v>
       </c>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1">
-        <v>0.69</v>
+        <v>0.7</v>
       </c>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="AA8" s="1"/>
     </row>
@@ -4024,13 +4023,13 @@
         <v>77</v>
       </c>
       <c r="B9" s="1">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="C9" s="1">
-        <v>205.7</v>
+        <v>206.2</v>
       </c>
       <c r="D9" s="1">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="E9" s="1">
         <v>0.5</v>
@@ -4045,10 +4044,10 @@
         <v>0.03</v>
       </c>
       <c r="I9" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="J9" s="1">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="K9" s="1">
         <v>316</v>
@@ -4057,10 +4056,10 @@
         <v>726</v>
       </c>
       <c r="M9" s="1">
-        <v>2290</v>
+        <v>2289</v>
       </c>
       <c r="N9" s="1">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="O9" s="1">
         <v>321</v>
@@ -4069,20 +4068,20 @@
         <v>729</v>
       </c>
       <c r="Q9" s="1">
-        <v>2298</v>
+        <v>2297</v>
       </c>
       <c r="R9" s="1"/>
       <c r="S9" s="1">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="T9" s="1">
-        <v>0.82</v>
+        <v>0.8</v>
       </c>
       <c r="U9" s="1"/>
       <c r="V9" s="1"/>
       <c r="W9" s="1"/>
       <c r="X9" s="1">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="Y9" s="1">
         <v>0.41</v>
@@ -4095,10 +4094,10 @@
         <v>78</v>
       </c>
       <c r="B10" s="1">
-        <v>1.0089999999999999</v>
+        <v>1.0249999999999999</v>
       </c>
       <c r="C10" s="1">
-        <v>489.3</v>
+        <v>386</v>
       </c>
       <c r="D10" s="1">
         <v>0.49</v>
@@ -4107,13 +4106,13 @@
         <v>0.5</v>
       </c>
       <c r="F10" s="1">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="G10" s="1">
         <v>0.5</v>
       </c>
       <c r="H10" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I10" s="1">
         <v>0.5</v>
@@ -4125,10 +4124,10 @@
         <v>319</v>
       </c>
       <c r="L10" s="1">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="M10" s="1">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="N10" s="1">
         <v>1261</v>
@@ -4137,27 +4136,27 @@
         <v>324</v>
       </c>
       <c r="P10" s="1">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="Q10" s="1">
-        <v>2308</v>
+        <v>2307</v>
       </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="U10" s="1">
-        <v>0.26</v>
+        <v>0.31</v>
       </c>
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
       <c r="Y10" s="1">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
       <c r="Z10" s="1">
-        <v>0.43</v>
+        <v>0.46</v>
       </c>
       <c r="AA10" s="1"/>
     </row>
@@ -4166,19 +4165,19 @@
         <v>79</v>
       </c>
       <c r="B11" s="1">
-        <v>1.3560000000000001</v>
+        <v>1.0129999999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>190.7</v>
+        <v>182.6</v>
       </c>
       <c r="D11" s="1">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="E11" s="1">
         <v>0.49</v>
       </c>
       <c r="F11" s="1">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="G11" s="1">
         <v>0.5</v>
@@ -4205,31 +4204,31 @@
         <v>1243</v>
       </c>
       <c r="O11" s="1">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P11" s="1">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="Q11" s="1">
         <v>2304</v>
       </c>
       <c r="R11" s="1"/>
       <c r="S11" s="1">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="T11" s="1"/>
       <c r="U11" s="1"/>
       <c r="V11" s="1">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
       <c r="W11" s="1"/>
       <c r="X11" s="1">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1">
-        <v>0.27</v>
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
@@ -4237,16 +4236,16 @@
         <v>80</v>
       </c>
       <c r="B12" s="1">
-        <v>1.1000000000000001</v>
+        <v>1.085</v>
       </c>
       <c r="C12" s="1">
-        <v>184.7</v>
+        <v>157.9</v>
       </c>
       <c r="D12" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="E12" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="F12" s="1">
         <v>0.18</v>
@@ -4255,10 +4254,10 @@
         <v>0.51</v>
       </c>
       <c r="H12" s="1">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="I12" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="J12" s="1">
         <v>1256</v>
@@ -4273,13 +4272,13 @@
         <v>2311</v>
       </c>
       <c r="N12" s="1">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="O12" s="1">
         <v>329</v>
       </c>
       <c r="P12" s="1">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="Q12" s="1">
         <v>2327</v>
@@ -4288,10 +4287,10 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
       <c r="U12" s="1">
-        <v>0.51</v>
+        <v>0.53</v>
       </c>
       <c r="V12" s="1">
-        <v>0.72</v>
+        <v>0.77</v>
       </c>
       <c r="W12" s="1"/>
       <c r="X12" s="1"/>
@@ -4300,7 +4299,7 @@
         <v>0.34</v>
       </c>
       <c r="AA12" s="1">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
@@ -4308,28 +4307,28 @@
         <v>81</v>
       </c>
       <c r="B13" s="1">
-        <v>1.091</v>
+        <v>1.0209999999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>372.8</v>
+        <v>397.1</v>
       </c>
       <c r="D13" s="1">
         <v>0.48</v>
       </c>
       <c r="E13" s="1">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="F13" s="1">
         <v>0.23</v>
       </c>
       <c r="G13" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H13" s="1">
         <v>0.02</v>
       </c>
       <c r="I13" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="J13" s="1">
         <v>1261</v>
@@ -4350,28 +4349,28 @@
         <v>323</v>
       </c>
       <c r="P13" s="1">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="Q13" s="1">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
       <c r="T13" s="1">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="U13" s="1"/>
       <c r="V13" s="1">
-        <v>-0.43</v>
+        <v>-0.39</v>
       </c>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="1">
-        <v>0.53</v>
+        <v>0.5</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
@@ -4379,13 +4378,13 @@
         <v>82</v>
       </c>
       <c r="B14" s="1">
-        <v>1.018</v>
+        <v>1.125</v>
       </c>
       <c r="C14" s="1">
-        <v>121.4</v>
+        <v>119.1</v>
       </c>
       <c r="D14" s="1">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="E14" s="1">
         <v>0.5</v>
@@ -4394,13 +4393,13 @@
         <v>0.23</v>
       </c>
       <c r="G14" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="H14" s="1">
         <v>0.02</v>
       </c>
       <c r="I14" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="J14" s="1">
         <v>1245</v>
@@ -4427,19 +4426,19 @@
         <v>2299</v>
       </c>
       <c r="R14" s="1">
-        <v>-0.4</v>
+        <v>-0.44</v>
       </c>
       <c r="S14" s="1">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="X14" s="1">
-        <v>0.68</v>
+        <v>0.71</v>
       </c>
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
@@ -4450,19 +4449,19 @@
         <v>83</v>
       </c>
       <c r="B15" s="1">
-        <v>1.026</v>
+        <v>1.0920000000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>268.10000000000002</v>
+        <v>235.1</v>
       </c>
       <c r="D15" s="1">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="E15" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F15" s="1">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="G15" s="1">
         <v>0.5</v>
@@ -4471,7 +4470,7 @@
         <v>0.02</v>
       </c>
       <c r="I15" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J15" s="1">
         <v>1255</v>
@@ -4492,27 +4491,27 @@
         <v>326</v>
       </c>
       <c r="P15" s="1">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="Q15" s="1">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="R15" s="1">
-        <v>-0.81</v>
+        <v>-0.82</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1">
-        <v>0.46</v>
+        <v>0.48</v>
       </c>
       <c r="V15" s="1"/>
       <c r="W15" s="1">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="X15" s="1"/>
       <c r="Y15" s="1"/>
       <c r="Z15" s="1">
-        <v>0.24</v>
+        <v>0.26</v>
       </c>
       <c r="AA15" s="1"/>
     </row>
@@ -4524,25 +4523,25 @@
         <v>1.0529999999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>322.2</v>
+        <v>243.1</v>
       </c>
       <c r="D16" s="1">
         <v>0.48</v>
       </c>
       <c r="E16" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F16" s="1">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="G16" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H16" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I16" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="J16" s="1">
         <v>1258</v>
@@ -4563,26 +4562,26 @@
         <v>323</v>
       </c>
       <c r="P16" s="1">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="Q16" s="1">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="R16" s="1">
         <v>-0.54</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="1">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1">
-        <v>0.39</v>
+        <v>0.41</v>
       </c>
       <c r="X16" s="1"/>
       <c r="Y16" s="1">
-        <v>0.42</v>
+        <v>0.4</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
@@ -4592,25 +4591,25 @@
         <v>85</v>
       </c>
       <c r="B17" s="1">
-        <v>1.256</v>
+        <v>1.032</v>
       </c>
       <c r="C17" s="1">
-        <v>120.1</v>
+        <v>155.1</v>
       </c>
       <c r="D17" s="1">
         <v>0.49</v>
       </c>
       <c r="E17" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F17" s="1">
-        <v>0.19</v>
+        <v>0.21</v>
       </c>
       <c r="G17" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H17" s="1">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="I17" s="1">
         <v>0.5</v>
@@ -4622,10 +4621,10 @@
         <v>322</v>
       </c>
       <c r="L17" s="1">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="M17" s="1">
-        <v>2314</v>
+        <v>2313</v>
       </c>
       <c r="N17" s="1">
         <v>1265</v>
@@ -4640,22 +4639,22 @@
         <v>2327</v>
       </c>
       <c r="R17" s="1">
-        <v>-0.41</v>
+        <v>-0.42</v>
       </c>
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
       <c r="V17" s="1">
-        <v>0.44</v>
+        <v>0.35</v>
       </c>
       <c r="W17" s="1">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="X17" s="1"/>
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1">
-        <v>0.68</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
@@ -4663,10 +4662,10 @@
         <v>86</v>
       </c>
       <c r="B18" s="1">
-        <v>1.046</v>
+        <v>1.0209999999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>176.5</v>
+        <v>251.8</v>
       </c>
       <c r="D18" s="1">
         <v>0.47</v>
@@ -4678,10 +4677,10 @@
         <v>0.23</v>
       </c>
       <c r="G18" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H18" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I18" s="1">
         <v>0.5</v>
@@ -4690,46 +4689,46 @@
         <v>1246</v>
       </c>
       <c r="K18" s="1">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L18" s="1">
         <v>729</v>
       </c>
       <c r="M18" s="1">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="N18" s="1">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="O18" s="1">
         <v>320</v>
       </c>
       <c r="P18" s="1">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="Q18" s="1">
         <v>2298</v>
       </c>
       <c r="R18" s="1"/>
       <c r="S18" s="1">
-        <v>1.97</v>
+        <v>1.83</v>
       </c>
       <c r="T18" s="1">
-        <v>0.7</v>
+        <v>0.72</v>
       </c>
       <c r="U18" s="1">
-        <v>-0.51</v>
+        <v>-0.48</v>
       </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
       <c r="X18" s="1">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="Z18" s="1">
-        <v>0.57999999999999996</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AA18" s="1"/>
     </row>
@@ -4738,22 +4737,22 @@
         <v>87</v>
       </c>
       <c r="B19" s="1">
-        <v>1.03</v>
+        <v>1.004</v>
       </c>
       <c r="C19" s="1">
-        <v>281.2</v>
+        <v>266.7</v>
       </c>
       <c r="D19" s="1">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="E19" s="1">
         <v>0.5</v>
       </c>
       <c r="F19" s="1">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="G19" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H19" s="1">
         <v>0.02</v>
@@ -4774,7 +4773,7 @@
         <v>2290</v>
       </c>
       <c r="N19" s="1">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="O19" s="1">
         <v>322</v>
@@ -4783,18 +4782,18 @@
         <v>737</v>
       </c>
       <c r="Q19" s="1">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="R19" s="1"/>
       <c r="S19" s="1">
-        <v>2.2999999999999998</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="T19" s="1"/>
       <c r="U19" s="1">
-        <v>-0.71</v>
+        <v>-0.68</v>
       </c>
       <c r="V19" s="1">
-        <v>0.17</v>
+        <v>0.18</v>
       </c>
       <c r="W19" s="1"/>
       <c r="X19" s="1">
@@ -4802,10 +4801,10 @@
       </c>
       <c r="Y19" s="1"/>
       <c r="Z19" s="1">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="AA19" s="1">
-        <v>0.27</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
@@ -4813,28 +4812,28 @@
         <v>88</v>
       </c>
       <c r="B20" s="1">
-        <v>1.0429999999999999</v>
+        <v>1.0229999999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>198.8</v>
+        <v>170.9</v>
       </c>
       <c r="D20" s="1">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="E20" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F20" s="1">
         <v>0.23</v>
       </c>
       <c r="G20" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="H20" s="1">
         <v>0.02</v>
       </c>
       <c r="I20" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="J20" s="1">
         <v>1250</v>
@@ -4843,10 +4842,10 @@
         <v>316</v>
       </c>
       <c r="L20" s="1">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="M20" s="1">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="N20" s="1">
         <v>1250</v>
@@ -4862,25 +4861,25 @@
       </c>
       <c r="R20" s="1"/>
       <c r="S20" s="1">
-        <v>1.37</v>
+        <v>1.31</v>
       </c>
       <c r="T20" s="1">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="U20" s="1"/>
       <c r="V20" s="1">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.08</v>
       </c>
       <c r="W20" s="1"/>
       <c r="X20" s="1">
-        <v>0.71</v>
+        <v>0.65</v>
       </c>
       <c r="Y20" s="1">
         <v>0.54</v>
       </c>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
@@ -4888,13 +4887,13 @@
         <v>89</v>
       </c>
       <c r="B21" s="1">
-        <v>1.0069999999999999</v>
+        <v>1.0640000000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>341.6</v>
+        <v>383.1</v>
       </c>
       <c r="D21" s="1">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="E21" s="1">
         <v>0.5</v>
@@ -4903,13 +4902,13 @@
         <v>0.23</v>
       </c>
       <c r="G21" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H21" s="1">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I21" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="J21" s="1">
         <v>1261</v>
@@ -4924,27 +4923,27 @@
         <v>2297</v>
       </c>
       <c r="N21" s="1">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="O21" s="1">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P21" s="1">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="Q21" s="1">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="U21" s="1">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="V21" s="1">
-        <v>-0.4</v>
+        <v>-0.36</v>
       </c>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
@@ -4952,60 +4951,60 @@
         <v>0.54</v>
       </c>
       <c r="Z21" s="1">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="AA21" s="1">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B22" s="1">
-        <v>1.242</v>
+        <v>1.0309999999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>196.3</v>
+        <v>153.4</v>
       </c>
       <c r="D22" s="1">
         <v>0.46</v>
       </c>
       <c r="E22" s="1">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="F22" s="1">
         <v>0.23</v>
       </c>
       <c r="G22" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H22" s="1">
         <v>0.02</v>
       </c>
       <c r="I22" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="J22" s="1">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="K22" s="1">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L22" s="1">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M22" s="1">
-        <v>2286</v>
+        <v>2289</v>
       </c>
       <c r="N22" s="1">
         <v>1245</v>
       </c>
       <c r="O22" s="1">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="P22" s="1">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="Q22" s="1">
         <v>2296</v>
@@ -5014,22 +5013,22 @@
         <v>-0.42</v>
       </c>
       <c r="S22" s="1">
-        <v>2.4300000000000002</v>
+        <v>2.41</v>
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="1">
-        <v>-0.82</v>
+        <v>-0.76</v>
       </c>
       <c r="V22" s="1"/>
       <c r="W22" s="1">
         <v>0.4</v>
       </c>
       <c r="X22" s="1">
-        <v>0.69</v>
+        <v>0.74</v>
       </c>
       <c r="Y22" s="1"/>
       <c r="Z22" s="1">
-        <v>0.47</v>
+        <v>0.48</v>
       </c>
       <c r="AA22" s="1"/>
     </row>
@@ -5038,25 +5037,25 @@
         <v>91</v>
       </c>
       <c r="B23" s="1">
-        <v>1.335</v>
+        <v>1.032</v>
       </c>
       <c r="C23" s="1">
-        <v>192.2</v>
+        <v>198.1</v>
       </c>
       <c r="D23" s="1">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="E23" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F23" s="1">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
       <c r="G23" s="1">
         <v>0.51</v>
       </c>
       <c r="H23" s="1">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="I23" s="1">
         <v>0.5</v>
@@ -5074,7 +5073,7 @@
         <v>2290</v>
       </c>
       <c r="N23" s="1">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="O23" s="1">
         <v>320</v>
@@ -5083,24 +5082,24 @@
         <v>726</v>
       </c>
       <c r="Q23" s="1">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="R23" s="1">
-        <v>-0.37</v>
+        <v>-0.36</v>
       </c>
       <c r="S23" s="1">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="T23" s="1">
-        <v>0.81</v>
+        <v>0.84</v>
       </c>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="X23" s="1">
-        <v>0.67</v>
+        <v>0.66</v>
       </c>
       <c r="Y23" s="1">
         <v>0.43</v>
@@ -5113,19 +5112,19 @@
         <v>92</v>
       </c>
       <c r="B24" s="1">
-        <v>1.0069999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="C24" s="1">
-        <v>296.3</v>
+        <v>325.3</v>
       </c>
       <c r="D24" s="1">
-        <v>0.47</v>
+        <v>0.46</v>
       </c>
       <c r="E24" s="1">
         <v>0.5</v>
       </c>
       <c r="F24" s="1">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
       <c r="G24" s="1">
         <v>0.51</v>
@@ -5137,46 +5136,46 @@
         <v>0.51</v>
       </c>
       <c r="J24" s="1">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="K24" s="1">
         <v>319</v>
       </c>
       <c r="L24" s="1">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="M24" s="1">
-        <v>2298</v>
+        <v>2296</v>
       </c>
       <c r="N24" s="1">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="O24" s="1">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P24" s="1">
         <v>720</v>
       </c>
       <c r="Q24" s="1">
-        <v>2304</v>
+        <v>2303</v>
       </c>
       <c r="R24" s="1">
-        <v>-0.55000000000000004</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="U24" s="1">
         <v>0.28999999999999998</v>
       </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1">
-        <v>0.45</v>
+        <v>0.4</v>
       </c>
       <c r="X24" s="1"/>
       <c r="Y24" s="1">
-        <v>0.46</v>
+        <v>0.45</v>
       </c>
       <c r="Z24" s="1">
         <v>0.42</v>
@@ -5188,19 +5187,19 @@
         <v>93</v>
       </c>
       <c r="B25" s="1">
-        <v>1.004</v>
+        <v>1.093</v>
       </c>
       <c r="C25" s="1">
-        <v>116.9</v>
+        <v>163</v>
       </c>
       <c r="D25" s="1">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="E25" s="1">
-        <v>0.52</v>
+        <v>0.5</v>
       </c>
       <c r="F25" s="1">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="G25" s="1">
         <v>0.51</v>
@@ -5209,10 +5208,10 @@
         <v>0.02</v>
       </c>
       <c r="I25" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="J25" s="1">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="K25" s="1">
         <v>318</v>
@@ -5221,10 +5220,10 @@
         <v>730</v>
       </c>
       <c r="M25" s="1">
-        <v>2293</v>
+        <v>2292</v>
       </c>
       <c r="N25" s="1">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="O25" s="1">
         <v>323</v>
@@ -5233,29 +5232,29 @@
         <v>732</v>
       </c>
       <c r="Q25" s="1">
-        <v>2301</v>
+        <v>2300</v>
       </c>
       <c r="R25" s="1">
-        <v>-0.47</v>
+        <v>-0.46</v>
       </c>
       <c r="S25" s="1">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
       <c r="V25" s="1">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="W25" s="1">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="X25" s="1">
-        <v>0.72</v>
+        <v>0.65</v>
       </c>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
       <c r="AA25" s="1">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
@@ -5263,16 +5262,16 @@
         <v>94</v>
       </c>
       <c r="B26" s="1">
-        <v>1.0529999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="C26" s="1">
-        <v>205.9</v>
+        <v>172.2</v>
       </c>
       <c r="D26" s="1">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="E26" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F26" s="1">
         <v>0.2</v>
@@ -5284,7 +5283,7 @@
         <v>0.02</v>
       </c>
       <c r="I26" s="1">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="J26" s="1">
         <v>1255</v>
@@ -5293,10 +5292,10 @@
         <v>323</v>
       </c>
       <c r="L26" s="1">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="M26" s="1">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="N26" s="1">
         <v>1260</v>
@@ -5311,26 +5310,26 @@
         <v>2319</v>
       </c>
       <c r="R26" s="1">
-        <v>-0.67</v>
+        <v>-0.63</v>
       </c>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
       <c r="U26" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="V26" s="1">
-        <v>0.37</v>
+        <v>0.45</v>
       </c>
       <c r="W26" s="1">
-        <v>0.46</v>
+        <v>0.52</v>
       </c>
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1">
-        <v>0.28000000000000003</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AA26" s="1">
-        <v>0.46</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
@@ -5338,28 +5337,28 @@
         <v>95</v>
       </c>
       <c r="B27" s="1">
-        <v>1.1220000000000001</v>
+        <v>1.077</v>
       </c>
       <c r="C27" s="1">
-        <v>270.5</v>
+        <v>270.2</v>
       </c>
       <c r="D27" s="1">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="E27" s="1">
         <v>0.51</v>
       </c>
       <c r="F27" s="1">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="G27" s="1">
-        <v>0.52</v>
+        <v>0.51</v>
       </c>
       <c r="H27" s="1">
         <v>0.02</v>
       </c>
       <c r="I27" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="J27" s="1">
         <v>1261</v>
@@ -5368,44 +5367,44 @@
         <v>317</v>
       </c>
       <c r="L27" s="1">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="M27" s="1">
-        <v>2299</v>
+        <v>2298</v>
       </c>
       <c r="N27" s="1">
         <v>1262</v>
       </c>
       <c r="O27" s="1">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="P27" s="1">
         <v>723</v>
       </c>
       <c r="Q27" s="1">
-        <v>2309</v>
+        <v>2308</v>
       </c>
       <c r="R27" s="1">
-        <v>-0.32</v>
+        <v>-0.34</v>
       </c>
       <c r="S27" s="1"/>
       <c r="T27" s="1">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="U27" s="1"/>
       <c r="V27" s="1">
-        <v>-0.32</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="W27" s="1">
-        <v>0.48</v>
+        <v>0.47</v>
       </c>
       <c r="X27" s="1"/>
       <c r="Y27" s="1">
-        <v>0.59</v>
+        <v>0.54</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27" s="1">
-        <v>0.48</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
@@ -5413,28 +5412,28 @@
         <v>96</v>
       </c>
       <c r="B28" s="1">
-        <v>1.0429999999999999</v>
+        <v>1.216</v>
       </c>
       <c r="C28" s="1">
-        <v>256.8</v>
+        <v>201.2</v>
       </c>
       <c r="D28" s="1">
-        <v>0.48</v>
+        <v>0.46</v>
       </c>
       <c r="E28" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="F28" s="1">
         <v>0.23</v>
       </c>
       <c r="G28" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H28" s="1">
         <v>0.02</v>
       </c>
       <c r="I28" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="J28" s="1">
         <v>1248</v>
@@ -5449,7 +5448,7 @@
         <v>2292</v>
       </c>
       <c r="N28" s="1">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="O28" s="1">
         <v>321</v>
@@ -5458,33 +5457,33 @@
         <v>732</v>
       </c>
       <c r="Q28" s="1">
-        <v>2303</v>
+        <v>2302</v>
       </c>
       <c r="R28" s="1"/>
       <c r="S28" s="1">
         <v>1.7</v>
       </c>
       <c r="T28" s="1">
-        <v>0.86</v>
+        <v>0.82</v>
       </c>
       <c r="U28" s="1">
-        <v>-0.48</v>
+        <v>-0.49</v>
       </c>
       <c r="V28" s="1">
         <v>-0.09</v>
       </c>
       <c r="W28" s="1"/>
       <c r="X28" s="1">
-        <v>0.77</v>
+        <v>0.82</v>
       </c>
       <c r="Y28" s="1">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="Z28" s="1">
-        <v>0.56999999999999995</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AA28" s="1">
-        <v>0.33</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
@@ -5492,10 +5491,10 @@
         <v>97</v>
       </c>
       <c r="B29" s="1">
-        <v>1.042</v>
+        <v>1.018</v>
       </c>
       <c r="C29" s="1">
-        <v>174.1</v>
+        <v>166.8</v>
       </c>
       <c r="D29" s="1">
         <v>0.46</v>
@@ -5504,10 +5503,10 @@
         <v>0.51</v>
       </c>
       <c r="F29" s="1">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="G29" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H29" s="1">
         <v>0.02</v>
@@ -5516,7 +5515,7 @@
         <v>0.5</v>
       </c>
       <c r="J29" s="1">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="K29" s="1">
         <v>314</v>
@@ -5525,41 +5524,41 @@
         <v>727</v>
       </c>
       <c r="M29" s="1">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="N29" s="1">
         <v>1249</v>
       </c>
       <c r="O29" s="1">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P29" s="1">
         <v>728</v>
       </c>
       <c r="Q29" s="1">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="R29" s="1">
-        <v>-0.43</v>
+        <v>-0.37</v>
       </c>
       <c r="S29" s="1">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="T29" s="1">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="U29" s="1">
-        <v>-0.57999999999999996</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="V29" s="1"/>
       <c r="W29" s="1">
-        <v>0.41</v>
+        <v>0.39</v>
       </c>
       <c r="X29" s="1">
-        <v>0.78</v>
+        <v>0.81</v>
       </c>
       <c r="Y29" s="1">
-        <v>0.46</v>
+        <v>0.49</v>
       </c>
       <c r="Z29" s="1">
         <v>0.54</v>
@@ -5571,19 +5570,19 @@
         <v>98</v>
       </c>
       <c r="B30" s="1">
-        <v>1.038</v>
+        <v>1.0109999999999999</v>
       </c>
       <c r="C30" s="1">
-        <v>206.6</v>
+        <v>153.5</v>
       </c>
       <c r="D30" s="1">
         <v>0.46</v>
       </c>
       <c r="E30" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="F30" s="1">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
       <c r="G30" s="1">
         <v>0.5</v>
@@ -5592,7 +5591,7 @@
         <v>0.02</v>
       </c>
       <c r="I30" s="1">
-        <v>0.49</v>
+        <v>0.51</v>
       </c>
       <c r="J30" s="1">
         <v>1243</v>
@@ -5607,7 +5606,7 @@
         <v>2288</v>
       </c>
       <c r="N30" s="1">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="O30" s="1">
         <v>321</v>
@@ -5616,30 +5615,30 @@
         <v>732</v>
       </c>
       <c r="Q30" s="1">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="R30" s="1">
-        <v>-0.49</v>
+        <v>-0.5</v>
       </c>
       <c r="S30" s="1">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="T30" s="1"/>
       <c r="U30" s="1">
-        <v>-0.75</v>
+        <v>-0.77</v>
       </c>
       <c r="V30" s="1">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="W30" s="1">
         <v>0.41</v>
       </c>
       <c r="X30" s="1">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
       <c r="AA30" s="1">
         <v>0.23</v>
@@ -5650,28 +5649,28 @@
         <v>99</v>
       </c>
       <c r="B31" s="1">
-        <v>1.0900000000000001</v>
+        <v>1.018</v>
       </c>
       <c r="C31" s="1">
-        <v>148.6</v>
+        <v>118.2</v>
       </c>
       <c r="D31" s="1">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="E31" s="1">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F31" s="1">
         <v>0.23</v>
       </c>
       <c r="G31" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="H31" s="1">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="I31" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="J31" s="1">
         <v>1252</v>
@@ -5692,36 +5691,36 @@
         <v>322</v>
       </c>
       <c r="P31" s="1">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="Q31" s="1">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="R31" s="1">
-        <v>-0.35</v>
+        <v>-0.34</v>
       </c>
       <c r="S31" s="1">
-        <v>1.43</v>
+        <v>1.47</v>
       </c>
       <c r="T31" s="1">
-        <v>0.91</v>
+        <v>0.88</v>
       </c>
       <c r="U31" s="1"/>
       <c r="V31" s="1">
         <v>-0.04</v>
       </c>
       <c r="W31" s="1">
-        <v>0.46</v>
+        <v>0.49</v>
       </c>
       <c r="X31" s="1">
-        <v>0.76</v>
+        <v>0.74</v>
       </c>
       <c r="Y31" s="1">
-        <v>0.61</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31" s="1">
-        <v>0.38</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
@@ -5729,28 +5728,28 @@
         <v>100</v>
       </c>
       <c r="B32" s="1">
-        <v>1.1579999999999999</v>
+        <v>1.077</v>
       </c>
       <c r="C32" s="1">
-        <v>238.3</v>
+        <v>176.2</v>
       </c>
       <c r="D32" s="1">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
       <c r="E32" s="1">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
       <c r="F32" s="1">
         <v>0.22</v>
       </c>
       <c r="G32" s="1">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="H32" s="1">
         <v>0.02</v>
       </c>
       <c r="I32" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="J32" s="1">
         <v>1262</v>
@@ -5765,10 +5764,10 @@
         <v>2301</v>
       </c>
       <c r="N32" s="1">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="O32" s="1">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P32" s="1">
         <v>723</v>
@@ -5781,26 +5780,26 @@
       </c>
       <c r="S32" s="1"/>
       <c r="T32" s="1">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="U32" s="1">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
       <c r="V32" s="1">
-        <v>-0.3</v>
+        <v>-0.34</v>
       </c>
       <c r="W32" s="1">
-        <v>0.5</v>
+        <v>0.49</v>
       </c>
       <c r="X32" s="1"/>
       <c r="Y32" s="1">
         <v>0.63</v>
       </c>
       <c r="Z32" s="1">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
       <c r="AA32" s="1">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
@@ -5808,16 +5807,16 @@
         <v>101</v>
       </c>
       <c r="B33" s="1">
-        <v>1.103</v>
+        <v>1.0149999999999999</v>
       </c>
       <c r="C33" s="1">
-        <v>141.80000000000001</v>
+        <v>211.1</v>
       </c>
       <c r="D33" s="1">
         <v>0.45</v>
       </c>
       <c r="E33" s="1">
-        <v>0.51</v>
+        <v>0.5</v>
       </c>
       <c r="F33" s="1">
         <v>0.23</v>
@@ -5829,7 +5828,7 @@
         <v>0.02</v>
       </c>
       <c r="I33" s="1">
-        <v>0.51</v>
+        <v>0.49</v>
       </c>
       <c r="J33" s="1">
         <v>1249</v>
@@ -5844,46 +5843,46 @@
         <v>2291</v>
       </c>
       <c r="N33" s="1">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="O33" s="1">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="P33" s="1">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="Q33" s="1">
-        <v>2302</v>
+        <v>2301</v>
       </c>
       <c r="R33" s="1">
-        <v>-0.45</v>
+        <v>-0.4</v>
       </c>
       <c r="S33" s="1">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="T33" s="1">
-        <v>0.68</v>
+        <v>0.69</v>
       </c>
       <c r="U33" s="1">
-        <v>-0.56999999999999995</v>
+        <v>-0.57999999999999996</v>
       </c>
       <c r="V33" s="1">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="W33" s="1">
-        <v>0.46</v>
+        <v>0.44</v>
       </c>
       <c r="X33" s="1">
-        <v>0.9</v>
+        <v>0.83</v>
       </c>
       <c r="Y33" s="1">
-        <v>0.63</v>
+        <v>0.61</v>
       </c>
       <c r="Z33" s="1">
-        <v>0.61</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="AA33" s="1">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
     </row>
   </sheetData>
@@ -5933,7 +5932,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="7" priority="15">
-      <formula>J2&lt;1245</formula>
+      <formula>J2&lt;1242</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K33">
@@ -5946,7 +5945,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="6" priority="13">
-      <formula>K2&lt;319</formula>
+      <formula>K2&lt;316</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L33">
@@ -5959,7 +5958,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="5" priority="11">
-      <formula>L2&lt;722</formula>
+      <formula>L2&lt;720</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M33">
@@ -5972,7 +5971,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="4" priority="9">
-      <formula>M2&lt;2291</formula>
+      <formula>M2&lt;2290</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N33">
@@ -5985,7 +5984,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="3" priority="7">
-      <formula>N2&lt;1247</formula>
+      <formula>N2&lt;1244</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2:O33">
@@ -5998,7 +5997,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="2" priority="5">
-      <formula>O2&lt;324</formula>
+      <formula>O2&lt;321</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P2:P33">
@@ -6011,7 +6010,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>P2&lt;725</formula>
+      <formula>P2&lt;722</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q2:Q33">
@@ -6024,7 +6023,7 @@
       </colorScale>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>Q2&lt;2301</formula>
+      <formula>Q2&lt;2298</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
